--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1664083.34990902</v>
+        <v>1662195.768392618</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>226.3487692937134</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,22 +707,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>57.87036115869468</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>124.1699884042476</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>189.5968436493439</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>253.9620394059549</v>
       </c>
       <c r="W5" t="n">
-        <v>337.455017953679</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>52.10844059186255</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>38.85099796338668</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,7 +1069,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>118.9482682581906</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>135.352867717798</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>171.7498680634317</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>76.28590008652367</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1546,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>283.8853710928094</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>157.0171567692664</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>155.8385935972308</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>8.070639042240156</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>174.7430637258767</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>95.02525064967652</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>207.0920728594999</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,13 +2476,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>42.02510219382556</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y28" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>76.45463414955591</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965523</v>
+        <v>93.41221638965536</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801204</v>
+        <v>91.23070601801217</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437412</v>
+        <v>90.21779139437425</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571485</v>
+        <v>55.21598883571499</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523566</v>
+        <v>54.76109577523579</v>
       </c>
       <c r="S31" t="n">
-        <v>94.54346395122489</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378952</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3755,7 +3755,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274074</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1763.586886263858</v>
+        <v>1139.146815977587</v>
       </c>
       <c r="C2" t="n">
-        <v>1394.624369323446</v>
+        <v>770.1842990371758</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>770.1842990371758</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>770.1842990371758</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>763.2387982879724</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W2" t="n">
-        <v>2153.726218239669</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X2" t="n">
-        <v>2153.726218239669</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y2" t="n">
-        <v>1763.586886263858</v>
+        <v>1525.746656041709</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4434,25 +4434,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>602.704753495073</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>602.704753495073</v>
       </c>
       <c r="T4" t="n">
-        <v>536.6170209242687</v>
+        <v>602.704753495073</v>
       </c>
       <c r="U4" t="n">
-        <v>536.6170209242687</v>
+        <v>602.704753495073</v>
       </c>
       <c r="V4" t="n">
-        <v>281.9325327183818</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1206.080506218543</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C5" t="n">
-        <v>837.1179892781316</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1737.019148941773</v>
       </c>
       <c r="W5" t="n">
-        <v>2356.285436519557</v>
+        <v>1737.019148941773</v>
       </c>
       <c r="X5" t="n">
-        <v>1982.819678258477</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y5" t="n">
-        <v>1592.680346282665</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="6">
@@ -4650,16 +4650,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4702,19 +4702,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>675.4941957298054</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E7" t="n">
-        <v>527.5811021474123</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1745.334734821698</v>
+        <v>1483.703156598057</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.372217881286</v>
+        <v>1483.703156598057</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>1483.703156598057</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2505.400333146899</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2505.400333146899</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2505.400333146899</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2505.400333146899</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>2505.400333146899</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X8" t="n">
-        <v>2131.93457488582</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y8" t="n">
-        <v>2131.93457488582</v>
+        <v>1483.703156598057</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>554.6442689908469</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5018,19 +5018,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5039,25 +5039,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,22 +5066,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,22 +5118,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>901.6749225845919</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1332.091733170014</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.9727323706985</v>
+        <v>563.4612303381598</v>
       </c>
       <c r="C13" t="n">
-        <v>653.9727323706985</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D13" t="n">
-        <v>653.9727323706985</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E13" t="n">
-        <v>506.0596387883054</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>1012.243360379707</v>
       </c>
       <c r="V13" t="n">
-        <v>1020.446367141521</v>
+        <v>1012.243360379707</v>
       </c>
       <c r="W13" t="n">
-        <v>731.0291971045608</v>
+        <v>1012.243360379707</v>
       </c>
       <c r="X13" t="n">
-        <v>731.0291971045608</v>
+        <v>784.2538094816899</v>
       </c>
       <c r="Y13" t="n">
-        <v>731.0291971045608</v>
+        <v>563.4612303381598</v>
       </c>
     </row>
     <row r="14">
@@ -5279,16 +5279,16 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>507.0827848727881</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C16" t="n">
-        <v>507.0827848727881</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D16" t="n">
-        <v>507.0827848727881</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>359.169691290395</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G16" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.78763177146</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655734</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286129</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X16" t="n">
-        <v>665.6859735286129</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y16" t="n">
-        <v>665.6859735286129</v>
+        <v>892.7214197110716</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,34 +5498,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5592,13 +5592,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
         <v>1302.911127126629</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>265.3924131404654</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404654</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404654</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404654</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404654</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,7 +5677,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1490.764109909175</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1490.764109909175</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1490.764109909175</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609661</v>
+        <v>1201.635471122733</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550792</v>
+        <v>946.9509829168462</v>
       </c>
       <c r="W19" t="n">
-        <v>441.9005583181186</v>
+        <v>657.5338128798857</v>
       </c>
       <c r="X19" t="n">
-        <v>265.3924131404654</v>
+        <v>429.5442619818684</v>
       </c>
       <c r="Y19" t="n">
-        <v>265.3924131404654</v>
+        <v>208.7516828383383</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5835,13 +5835,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
         <v>2331.418122136705</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C22" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1402.931168891562</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>1402.931168891562</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>1402.931168891562</v>
+        <v>755.1831334811261</v>
       </c>
       <c r="W22" t="n">
-        <v>1113.513998854602</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>1113.513998854602</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028586</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6054,13 +6054,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,25 +6069,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>437.6964226305961</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C25" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655743</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286138</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>437.6964226305961</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="Y25" t="n">
-        <v>437.6964226305961</v>
+        <v>97.21709146028586</v>
       </c>
     </row>
     <row r="26">
@@ -6203,40 +6203,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6312,19 +6312,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1689.561836756086</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2019.424464420119</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2298.964529638816</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6391,7 +6391,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609663</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550795</v>
+        <v>531.397718270632</v>
       </c>
       <c r="W28" t="n">
-        <v>441.9005583181189</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
     </row>
     <row r="29">
@@ -6440,16 +6440,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6461,25 +6461,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207831</v>
@@ -6558,10 +6558,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>656.2176762508388</v>
+        <v>656.2176762508402</v>
       </c>
       <c r="C31" t="n">
-        <v>543.0423586043028</v>
+        <v>543.042358604304</v>
       </c>
       <c r="D31" t="n">
-        <v>448.6865844733379</v>
+        <v>448.686584473339</v>
       </c>
       <c r="E31" t="n">
-        <v>356.5343561723157</v>
+        <v>356.5343561723166</v>
       </c>
       <c r="F31" t="n">
-        <v>265.4052739557761</v>
+        <v>265.405273955777</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569676</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962056</v>
+        <v>997.6688721962048</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1785.31337646369</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1785.31337646369</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="U31" t="n">
-        <v>1551.945602958619</v>
+        <v>1503.284906591122</v>
       </c>
       <c r="V31" t="n">
-        <v>1353.021980034103</v>
+        <v>1304.361283666606</v>
       </c>
       <c r="W31" t="n">
-        <v>1119.365675278514</v>
+        <v>1070.704978911016</v>
       </c>
       <c r="X31" t="n">
-        <v>947.1369896618671</v>
+        <v>898.4762932943693</v>
       </c>
       <c r="Y31" t="n">
-        <v>782.1052757997079</v>
+        <v>733.4445794322098</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6725,10 +6725,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6914,10 +6914,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,7 +6926,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7032,10 +7032,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7120,7 +7120,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7169,55 +7169,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7327,16 +7327,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7388,25 +7388,25 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7433,22 +7433,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7585,7 +7585,7 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
         <v>2038.520840384657</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7634,19 +7634,19 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7670,10 +7670,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,16 +8772,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>124.3400780863238</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9012,22 +9012,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>176.717654749845</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9252,7 +9252,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165117</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9483,16 +9483,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>32.78140656352451</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>103.5460800954136</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>2.351981305767932</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22.81482341267093</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>130.6844047393602</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>101.8937133615526</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>50.9665916631605</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24175,22 +24175,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>126.5223104087127</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>79.43092547709114</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,13 +24364,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>125.2217189048023</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y28" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>48.1740894038244</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.710571738979</v>
+        <v>93.71057173897913</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>48.17408940382175</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>913624.7133275938</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.713327594</v>
       </c>
     </row>
     <row r="8">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="E2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="F2" t="n">
+        <v>469234.8716852501</v>
+      </c>
+      <c r="G2" t="n">
+        <v>469234.8716852501</v>
+      </c>
+      <c r="H2" t="n">
         <v>469234.8716852503</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>469234.8716852503</v>
       </c>
-      <c r="G2" t="n">
-        <v>469234.8716852505</v>
-      </c>
-      <c r="H2" t="n">
-        <v>469234.8716852504</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>469234.8716852502</v>
       </c>
-      <c r="J2" t="n">
-        <v>469234.8716852503</v>
-      </c>
       <c r="K2" t="n">
-        <v>488186.5648143235</v>
+        <v>488186.5648143234</v>
       </c>
       <c r="L2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="M2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="N2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="O2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="P2" t="n">
         <v>492625.0619185701</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284559</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086682</v>
+        <v>10342.90680086694</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284559</v>
       </c>
     </row>
     <row r="4">
@@ -26427,13 +26427,13 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.66962143912</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
@@ -26442,19 +26442,19 @@
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563562</v>
+        <v>33210.29213563558</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275958</v>
       </c>
       <c r="M4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275956</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275956</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275959</v>
@@ -26476,13 +26476,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26494,7 +26494,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26503,13 +26503,13 @@
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-336976.8536106067</v>
+        <v>-336976.8536106066</v>
       </c>
       <c r="C6" t="n">
+        <v>252991.0256039378</v>
+      </c>
+      <c r="D6" t="n">
         <v>252991.0256039377</v>
       </c>
-      <c r="D6" t="n">
-        <v>252991.0256039378</v>
-      </c>
       <c r="E6" t="n">
-        <v>-162958.1603618016</v>
+        <v>-163055.6194877733</v>
       </c>
       <c r="F6" t="n">
-        <v>362201.8761150946</v>
+        <v>362104.416989122</v>
       </c>
       <c r="G6" t="n">
-        <v>362201.8761150948</v>
+        <v>362104.4169891222</v>
       </c>
       <c r="H6" t="n">
-        <v>362201.8761150946</v>
+        <v>362104.4169891223</v>
       </c>
       <c r="I6" t="n">
-        <v>362201.8761150945</v>
+        <v>362104.4169891223</v>
       </c>
       <c r="J6" t="n">
-        <v>185778.6569225016</v>
+        <v>185681.1977965294</v>
       </c>
       <c r="K6" t="n">
-        <v>314185.4588456193</v>
+        <v>314166.9651076851</v>
       </c>
       <c r="L6" t="n">
         <v>347102.5924349182</v>
       </c>
       <c r="M6" t="n">
-        <v>222644.4840019479</v>
+        <v>222644.484001948</v>
       </c>
       <c r="N6" t="n">
-        <v>357445.499235785</v>
+        <v>357445.4992357852</v>
       </c>
       <c r="O6" t="n">
-        <v>357445.499235785</v>
+        <v>357445.4992357852</v>
       </c>
       <c r="P6" t="n">
-        <v>313282.8939329394</v>
+        <v>313282.8939329395</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.68065829751927e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.68065829751927e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26741,22 +26741,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.68065829751927e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108352</v>
+        <v>12.92863350108367</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="3">
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.68065829751927e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>187.4354007270816</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>291.3706075587183</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>22.49520357591022</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>35.43826180874041</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>73.79021906417998</v>
       </c>
       <c r="W5" t="n">
-        <v>11.78595076373398</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>96.50703242634981</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>262.9821018140712</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>39.06284509117347</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>46.83478528866308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28375,13 +28375,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,10 +31929,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35030,7 +35030,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>434.7644551367899</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35732,19 +35732,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>509.9122281478579</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35969,19 +35969,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
         <v>756.5322523145245</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36203,16 +36203,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M21" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
         <v>207.0934149315247</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,13 +36452,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>239.8748214950492</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412266</v>
+        <v>67.71102679412252</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043189</v>
+        <v>94.42895660043175</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37546,7 +37546,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221117</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
